--- a/biology/Microbiologie/Bilidiidae/Bilidiidae.xlsx
+++ b/biology/Microbiologie/Bilidiidae/Bilidiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bilidiidae sont une famille de Ciliés de la classe des Oligotrichea et de l’ordre des Oligotrichida.
 Cette famille a sans doute été créée par erreur ; en effet, seule la base GBIF y fait référence mais sans y inclure un genre type ad hoc.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient de l'hypothétique genre type Bilidium, qui n'a jamais été créé. Par contre un taxon dont l'orthographe et la taxonomie sont voisines, Strobilidium, se trouve être genre type de la famille des Strobilididae.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (27 septembre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (27 septembre 2022) :
 Bursaria (en) O. F. Müller, 1773</t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seule la base GBIF fait référence au taxon des Bilidiidae[1].
-The Taxonomicon  (27 septembre 2022)[2] classe le genre Bursaria dans la classe des Colpodea Small &amp; Lynn 1981, l'ordre des Bursariomorphida Fernández-Galiano, 1978 et la famille des Bursariidae Bory de St. Vincent, 1826.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seule la base GBIF fait référence au taxon des Bilidiidae.
+The Taxonomicon  (27 septembre 2022) classe le genre Bursaria dans la classe des Colpodea Small &amp; Lynn 1981, l'ordre des Bursariomorphida Fernández-Galiano, 1978 et la famille des Bursariidae Bory de St. Vincent, 1826.
 </t>
         </is>
       </c>
